--- a/downloaded_files/MEPS425_Lecture-35721.xlsx
+++ b/downloaded_files/MEPS425_Lecture-35721.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -51,15 +51,6 @@
     <x:t>Ahmed Reda Mohamed abdel rahman</x:t>
   </x:si>
   <x:si>
-    <x:t>1200785</x:t>
-  </x:si>
-  <x:si>
-    <x:t>احمد عبدالنبى ابو المجد عبدالمتجلى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ahmed abdelnaby aboelmagd</x:t>
-  </x:si>
-  <x:si>
     <x:t>1200112</x:t>
   </x:si>
   <x:si>
@@ -112,15 +103,6 @@
   </x:si>
   <x:si>
     <x:t>Omar Abdullah</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230076</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر محمد محمود احمد النشار</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Mohamed Mahmoud Ahmed El-Nashar</x:t>
   </x:si>
   <x:si>
     <x:t>1210371</x:t>
@@ -335,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -790,7 +772,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45906.4148960995</x:v>
+        <x:v>45906.6666378472</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -822,7 +804,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.6666378472</x:v>
+        <x:v>45906.6696077199</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +836,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6696077199</x:v>
+        <x:v>45906.6652980671</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6652980671</x:v>
+        <x:v>45906.6767687847</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +900,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6767687847</x:v>
+        <x:v>45915.9878937847</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +932,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9878937847</x:v>
+        <x:v>45906.6650814815</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +964,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6650814815</x:v>
+        <x:v>45914.4122388542</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +996,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4355234606</x:v>
+        <x:v>45906.6650525463</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1028,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.4122388542</x:v>
+        <x:v>45909.6298250347</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1060,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6650525463</x:v>
+        <x:v>45907.4192876157</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1092,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.6298250347</x:v>
+        <x:v>45906.6699670139</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1124,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.4192876157</x:v>
+        <x:v>45914.4825651968</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6699670139</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.4825651968</x:v>
+        <x:v>45906.6661054051</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6661054051</x:v>
+        <x:v>45906.6656807523</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45909.8906407407</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1319,70 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.6656807523</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45909.8906407407</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS425_Lecture-35721.xlsx
+++ b/downloaded_files/MEPS425_Lecture-35721.xlsx
@@ -868,7 +868,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6767687847</x:v>
+        <x:v>45927.7911652778</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>

--- a/downloaded_files/MEPS425_Lecture-35721.xlsx
+++ b/downloaded_files/MEPS425_Lecture-35721.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,15 +78,6 @@
     <x:t>Salma Amr Kamal Faragalla</x:t>
   </x:si>
   <x:si>
-    <x:t>1210367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبد الرحمن تامر حنفي محمود محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abdelrahman Tamer Hanafy Mahmoud Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210258</x:t>
   </x:si>
   <x:si>
@@ -193,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Youssef Khaled Ahmed Kadry Saleh</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف خالد فهمى عبدالفتاح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Khaled Fahmy Abdelfattah</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -317,7 +299,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -617,7 +599,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -626,7 +608,7 @@
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="32.550625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="44.450625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="38.680625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -868,7 +850,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45927.7911652778</x:v>
+        <x:v>45915.9878937847</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -900,7 +882,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9878937847</x:v>
+        <x:v>45906.6650814815</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -932,7 +914,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6650814815</x:v>
+        <x:v>45914.4122388542</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -964,7 +946,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.4122388542</x:v>
+        <x:v>45906.6650525463</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -996,7 +978,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6650525463</x:v>
+        <x:v>45909.6298250347</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1028,7 +1010,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.6298250347</x:v>
+        <x:v>45907.4192876157</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1060,7 +1042,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4192876157</x:v>
+        <x:v>45906.6699670139</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1092,7 +1074,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6699670139</x:v>
+        <x:v>45914.4825651968</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1124,7 +1106,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.4825651968</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1156,7 +1138,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.6661054051</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1188,7 +1170,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6661054051</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1220,7 +1202,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45906.6656807523</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1237,70 +1219,6 @@
       <x:c r="R18" s="2" t="s"/>
       <x:c r="S18" s="2" t="s"/>
       <x:c r="T18" s="2" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:20">
-      <x:c r="A19" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B19" s="2" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C19" s="2" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D19" s="2" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="E19" s="3">
-        <x:v>45906.6656807523</x:v>
-      </x:c>
-      <x:c r="F19" s="2" t="s"/>
-      <x:c r="G19" s="2" t="s"/>
-      <x:c r="H19" s="2" t="s"/>
-      <x:c r="I19" s="2" t="s"/>
-      <x:c r="J19" s="2" t="s"/>
-      <x:c r="K19" s="2" t="s"/>
-      <x:c r="L19" s="2" t="s"/>
-      <x:c r="M19" s="2" t="s"/>
-      <x:c r="N19" s="2" t="s"/>
-      <x:c r="O19" s="2" t="s"/>
-      <x:c r="P19" s="2" t="s"/>
-      <x:c r="Q19" s="2" t="s"/>
-      <x:c r="R19" s="2" t="s"/>
-      <x:c r="S19" s="2" t="s"/>
-      <x:c r="T19" s="2" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:20">
-      <x:c r="A20" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C20" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="D20" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E20" s="3">
-        <x:v>45909.8906407407</x:v>
-      </x:c>
-      <x:c r="F20" s="2" t="s"/>
-      <x:c r="G20" s="2" t="s"/>
-      <x:c r="H20" s="2" t="s"/>
-      <x:c r="I20" s="2" t="s"/>
-      <x:c r="J20" s="2" t="s"/>
-      <x:c r="K20" s="2" t="s"/>
-      <x:c r="L20" s="2" t="s"/>
-      <x:c r="M20" s="2" t="s"/>
-      <x:c r="N20" s="2" t="s"/>
-      <x:c r="O20" s="2" t="s"/>
-      <x:c r="P20" s="2" t="s"/>
-      <x:c r="Q20" s="2" t="s"/>
-      <x:c r="R20" s="2" t="s"/>
-      <x:c r="S20" s="2" t="s"/>
-      <x:c r="T20" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS425_Lecture-35721.xlsx
+++ b/downloaded_files/MEPS425_Lecture-35721.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,15 +139,6 @@
   </x:si>
   <x:si>
     <x:t>mohammad amr morad bahgat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220279</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان عمرو عبدالمجيد فؤاد احمد شكرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Amr Abdelmagid</x:t>
   </x:si>
   <x:si>
     <x:t>1200833</x:t>
@@ -299,7 +290,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E18" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -599,7 +590,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T18"/>
+  <x:dimension ref="A1:T17"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1074,7 +1065,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.4825651968</x:v>
+        <x:v>45906.4145881944</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1106,7 +1097,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4145881944</x:v>
+        <x:v>45906.6661054051</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1138,7 +1129,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6661054051</x:v>
+        <x:v>45906.7140988773</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1170,7 +1161,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.7140988773</x:v>
+        <x:v>45906.6656807523</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1187,38 +1178,6 @@
       <x:c r="R17" s="2" t="s"/>
       <x:c r="S17" s="2" t="s"/>
       <x:c r="T17" s="2" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:20">
-      <x:c r="A18" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B18" s="2" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C18" s="2" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="D18" s="2" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="E18" s="3">
-        <x:v>45906.6656807523</x:v>
-      </x:c>
-      <x:c r="F18" s="2" t="s"/>
-      <x:c r="G18" s="2" t="s"/>
-      <x:c r="H18" s="2" t="s"/>
-      <x:c r="I18" s="2" t="s"/>
-      <x:c r="J18" s="2" t="s"/>
-      <x:c r="K18" s="2" t="s"/>
-      <x:c r="L18" s="2" t="s"/>
-      <x:c r="M18" s="2" t="s"/>
-      <x:c r="N18" s="2" t="s"/>
-      <x:c r="O18" s="2" t="s"/>
-      <x:c r="P18" s="2" t="s"/>
-      <x:c r="Q18" s="2" t="s"/>
-      <x:c r="R18" s="2" t="s"/>
-      <x:c r="S18" s="2" t="s"/>
-      <x:c r="T18" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MEPS425_Lecture-35721.xlsx
+++ b/downloaded_files/MEPS425_Lecture-35721.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -166,15 +166,6 @@
   </x:si>
   <x:si>
     <x:t>Yehia Tarek El Sayed Sallam El Hendawy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1200310</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يوسف خالد احمد قدرى صالح</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Youssef Khaled Ahmed Kadry Saleh</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -290,7 +281,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E17" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E16" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -590,7 +581,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T17"/>
+  <x:dimension ref="A1:T16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1146,38 +1137,6 @@
       <x:c r="R16" s="2" t="s"/>
       <x:c r="S16" s="2" t="s"/>
       <x:c r="T16" s="2" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:20">
-      <x:c r="A17" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="C17" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="E17" s="3">
-        <x:v>45906.6656807523</x:v>
-      </x:c>
-      <x:c r="F17" s="2" t="s"/>
-      <x:c r="G17" s="2" t="s"/>
-      <x:c r="H17" s="2" t="s"/>
-      <x:c r="I17" s="2" t="s"/>
-      <x:c r="J17" s="2" t="s"/>
-      <x:c r="K17" s="2" t="s"/>
-      <x:c r="L17" s="2" t="s"/>
-      <x:c r="M17" s="2" t="s"/>
-      <x:c r="N17" s="2" t="s"/>
-      <x:c r="O17" s="2" t="s"/>
-      <x:c r="P17" s="2" t="s"/>
-      <x:c r="Q17" s="2" t="s"/>
-      <x:c r="R17" s="2" t="s"/>
-      <x:c r="S17" s="2" t="s"/>
-      <x:c r="T17" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
